--- a/BackTest/2019-10-17 BackTest ELF.xlsx
+++ b/BackTest/2019-10-17 BackTest ELF.xlsx
@@ -937,7 +937,9 @@
       <c r="J12" t="n">
         <v>1.100000000000009</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>19.99999999999886</v>
+      </c>
       <c r="L12" t="n">
         <v>96.28000000000002</v>
       </c>
@@ -990,7 +992,9 @@
       <c r="J13" t="n">
         <v>1.100000000000009</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L13" t="n">
         <v>96.30000000000001</v>
       </c>
